--- a/cssDataSheet.xlsx
+++ b/cssDataSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>Office: DILG IV-A (CALABARZON)</t>
   </si>
@@ -118,6 +118,321 @@
   <si>
     <t>Contact Number</t>
   </si>
+  <si>
+    <t>2023/0418</t>
+  </si>
+  <si>
+    <t>2023/04/18</t>
+  </si>
+  <si>
+    <t>JANE ERASMUS MARIE ACAIN</t>
+  </si>
+  <si>
+    <t>jane.martija@yahoo.com</t>
+  </si>
+  <si>
+    <t>0923-928-9479</t>
+  </si>
+  <si>
+    <t>2023/0419</t>
+  </si>
+  <si>
+    <t>2023/04/19</t>
+  </si>
+  <si>
+    <t>VANESSA TADIOSA</t>
+  </si>
+  <si>
+    <t>vanessaabrigotadiosa22@gmail.com</t>
+  </si>
+  <si>
+    <t>0917-353-9508</t>
+  </si>
+  <si>
+    <t>2023/0414</t>
+  </si>
+  <si>
+    <t>2023/04/20</t>
+  </si>
+  <si>
+    <t>Below 18</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RHODORA ONA</t>
+  </si>
+  <si>
+    <t>onarhodora@yahoo.com</t>
+  </si>
+  <si>
+    <t>0920-218-9669</t>
+  </si>
+  <si>
+    <t>2023/0420</t>
+  </si>
+  <si>
+    <t>JONALYN CATE MAGCAYANG</t>
+  </si>
+  <si>
+    <t>jcatemagcayang@gmail.com</t>
+  </si>
+  <si>
+    <t>0917-677-1213</t>
+  </si>
+  <si>
+    <t>2023/0424</t>
+  </si>
+  <si>
+    <t>2023/04/24</t>
+  </si>
+  <si>
+    <t>MARIA TERESITA ALPUERTO</t>
+  </si>
+  <si>
+    <t>dottygalpuerto@gmail.com</t>
+  </si>
+  <si>
+    <t>0949-885-9660</t>
+  </si>
+  <si>
+    <t>MARIA MELODY ZAMORA</t>
+  </si>
+  <si>
+    <t>mariamelody2311@gmail.com</t>
+  </si>
+  <si>
+    <t>0910-380-7468</t>
+  </si>
+  <si>
+    <t>2023/0403</t>
+  </si>
+  <si>
+    <t>ANA SHEILA DALIDA</t>
+  </si>
+  <si>
+    <t>anasheiladalida@gmail.com</t>
+  </si>
+  <si>
+    <t>0917-652-4455</t>
+  </si>
+  <si>
+    <t>2023/0404</t>
+  </si>
+  <si>
+    <t>JULIUS ANTHONY CADA</t>
+  </si>
+  <si>
+    <t>cada_0789@yahoo.com</t>
+  </si>
+  <si>
+    <t>0956-890-9877</t>
+  </si>
+  <si>
+    <t>SHARMAINE MAE CATAPANG</t>
+  </si>
+  <si>
+    <t>sharmainecatapang@gmail.com</t>
+  </si>
+  <si>
+    <t>0945-857-0674</t>
+  </si>
+  <si>
+    <t>JAMES CARL TORRES</t>
+  </si>
+  <si>
+    <t>jcftorres1920@gmail.com</t>
+  </si>
+  <si>
+    <t>0917-119-1286</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>RAFAEL SATURNO</t>
+  </si>
+  <si>
+    <t>ralphstein23@gmail.com</t>
+  </si>
+  <si>
+    <t>0966-931-3518</t>
+  </si>
+  <si>
+    <t>2023/04/13</t>
+  </si>
+  <si>
+    <t>JEFREY GAMBAN</t>
+  </si>
+  <si>
+    <t>jefgamban52@gmail.com</t>
+  </si>
+  <si>
+    <t>6391-643-5158</t>
+  </si>
+  <si>
+    <t>2023/0425</t>
+  </si>
+  <si>
+    <t>2023/04/25</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER MONTOYA</t>
+  </si>
+  <si>
+    <t>montoya.chris33@gmail.com</t>
+  </si>
+  <si>
+    <t>0945-402-9140</t>
+  </si>
+  <si>
+    <t>CAMILLE GATDULA</t>
+  </si>
+  <si>
+    <t>camillektronquillo@gmail.com</t>
+  </si>
+  <si>
+    <t>0915-477-9068</t>
+  </si>
+  <si>
+    <t>KITCH KARIANNE GOGOLIN</t>
+  </si>
+  <si>
+    <t>krgogolin@up.edu.ph</t>
+  </si>
+  <si>
+    <t>9354-469-634_</t>
+  </si>
+  <si>
+    <t>2023/0413</t>
+  </si>
+  <si>
+    <t>CRISTEL MARIE FISCAL</t>
+  </si>
+  <si>
+    <t>cristelfiscal@gmail.com</t>
+  </si>
+  <si>
+    <t>0916-925-3646</t>
+  </si>
+  <si>
+    <t>2023/0411</t>
+  </si>
+  <si>
+    <t>2023/05/03</t>
+  </si>
+  <si>
+    <t>JONAS EMMANUEL FAJARDA</t>
+  </si>
+  <si>
+    <t>fajarda.jonas2018@gmail.com</t>
+  </si>
+  <si>
+    <t>0915-131-2598</t>
+  </si>
+  <si>
+    <t>2023/05/05</t>
+  </si>
+  <si>
+    <t>2023/0412</t>
+  </si>
+  <si>
+    <t>JOHN CARLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>johncarlo.m.hernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>0905-061-0475</t>
+  </si>
+  <si>
+    <t>2023/05/08</t>
+  </si>
+  <si>
+    <t>REY ANN AVILLA</t>
+  </si>
+  <si>
+    <t>reyann.m.avilla@gmail.com</t>
+  </si>
+  <si>
+    <t>0995-920-1044</t>
+  </si>
+  <si>
+    <t>ART BRIAN RUBIO</t>
+  </si>
+  <si>
+    <t>artrubio20@gmail.com</t>
+  </si>
+  <si>
+    <t>0906-340-1239</t>
+  </si>
+  <si>
+    <t>MA.  AURORA ROBLES</t>
+  </si>
+  <si>
+    <t>dilgaura@gmail.com</t>
+  </si>
+  <si>
+    <t>0977-841-9909</t>
+  </si>
+  <si>
+    <t>2023/0417</t>
+  </si>
+  <si>
+    <t>SHEENA MISTEE ALEGRE</t>
+  </si>
+  <si>
+    <t>sheenamistee_alegre@yahoo.com</t>
+  </si>
+  <si>
+    <t>0932-134-3116</t>
+  </si>
+  <si>
+    <t>CHERIELYN PORRAS</t>
+  </si>
+  <si>
+    <t>cherielynporras@gmail.com</t>
+  </si>
+  <si>
+    <t>0965-047-0559</t>
+  </si>
+  <si>
+    <t>2023/0426</t>
+  </si>
+  <si>
+    <t>JUAN PAOLO  BROSAS</t>
+  </si>
+  <si>
+    <t>juanpaolobrosas@gmail.com</t>
+  </si>
+  <si>
+    <t>0927-869-7023</t>
+  </si>
+  <si>
+    <t>2023/0428</t>
+  </si>
+  <si>
+    <t>ALYSSA BARRAMEDA</t>
+  </si>
+  <si>
+    <t>alyssabarrameda05@gmail.com</t>
+  </si>
+  <si>
+    <t>0956-619-8557</t>
+  </si>
+  <si>
+    <t>HANNAH KRYSTEL CASTRO</t>
+  </si>
+  <si>
+    <t>hannahkrystelcastro@gmail.com</t>
+  </si>
+  <si>
+    <t>0927-904-6168</t>
+  </si>
 </sst>
 </file>
 
@@ -205,12 +520,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -219,6 +528,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -272,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -291,13 +606,10 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -306,31 +618,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -345,7 +633,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -369,10 +657,10 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -383,6 +671,15 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +1019,7 @@
   <dimension ref="A1:AB1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="40" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="12.58203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -736,7 +1033,7 @@
     <col min="7" max="7" width="11" customWidth="true" style="3"/>
     <col min="8" max="8" width="11" customWidth="true" style="3"/>
     <col min="9" max="9" width="11" customWidth="true" style="3"/>
-    <col min="10" max="10" width="11" customWidth="true" style="7"/>
+    <col min="10" max="10" width="11" customWidth="true" style="6"/>
     <col min="11" max="11" width="14.75" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.08203125" customWidth="true" style="0"/>
     <col min="13" max="13" width="10.08203125" customWidth="true" style="0"/>
@@ -908,27 +1205,27 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" customHeight="1" ht="15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -940,27 +1237,27 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" customHeight="1" ht="15">
-      <c r="A7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -972,27 +1269,27 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1034,44 +1331,44 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" customHeight="1" ht="27">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="30" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1080,9 +1377,9 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" customHeight="1" ht="76.5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1101,41 +1398,41 @@
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="10" t="s">
+      <c r="S11" s="22"/>
+      <c r="T11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="W11" s="2"/>
@@ -1145,31 +1442,65 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A12" s="15">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
+    <row r="12" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A12" s="28">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="29">
+        <v>1</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <v>1</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
+      </c>
+      <c r="R12" s="29">
+        <v>1</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1177,31 +1508,65 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+    <row r="13" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A13" s="28">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
+      <c r="L13" s="29">
+        <v>1</v>
+      </c>
+      <c r="M13" s="29">
+        <v>1</v>
+      </c>
+      <c r="N13" s="29">
+        <v>1</v>
+      </c>
+      <c r="O13" s="29">
+        <v>1</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1</v>
+      </c>
+      <c r="R13" s="29">
+        <v>1</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1209,31 +1574,71 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A14" s="15">
-        <v>3</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
+    <row r="14" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A14" s="28">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="29">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
+      <c r="M14" s="29">
+        <v>1</v>
+      </c>
+      <c r="N14" s="29">
+        <v>1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1</v>
+      </c>
+      <c r="P14" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>1</v>
+      </c>
+      <c r="R14" s="29">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -1241,31 +1646,65 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A15" s="15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+    <row r="15" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A15" s="28">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
+      <c r="L15" s="29">
+        <v>1</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1</v>
+      </c>
+      <c r="N15" s="29">
+        <v>1</v>
+      </c>
+      <c r="O15" s="29">
+        <v>1</v>
+      </c>
+      <c r="P15" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>1</v>
+      </c>
+      <c r="R15" s="29">
+        <v>1</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -1273,31 +1712,65 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A16" s="15">
-        <v>5</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
+    <row r="16" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A16" s="28">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1</v>
+      </c>
+      <c r="L16" s="29">
+        <v>1</v>
+      </c>
+      <c r="M16" s="29">
+        <v>1</v>
+      </c>
+      <c r="N16" s="29">
+        <v>1</v>
+      </c>
+      <c r="O16" s="29">
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>1</v>
+      </c>
+      <c r="R16" s="29">
+        <v>1</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -1305,31 +1778,65 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A17" s="15">
-        <v>6</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+    <row r="17" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
+      <c r="L17" s="29">
+        <v>1</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1</v>
+      </c>
+      <c r="N17" s="29">
+        <v>1</v>
+      </c>
+      <c r="O17" s="29">
+        <v>1</v>
+      </c>
+      <c r="P17" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>1</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -1337,31 +1844,65 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A18" s="15">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+    <row r="18" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A18" s="28">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1</v>
+      </c>
+      <c r="I18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1</v>
+      </c>
+      <c r="L18" s="29">
+        <v>1</v>
+      </c>
+      <c r="M18" s="29">
+        <v>1</v>
+      </c>
+      <c r="N18" s="29">
+        <v>1</v>
+      </c>
+      <c r="O18" s="29">
+        <v>1</v>
+      </c>
+      <c r="P18" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>1</v>
+      </c>
+      <c r="R18" s="29">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -1369,31 +1910,65 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A19" s="15">
-        <v>8</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+    <row r="19" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A19" s="28">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
+      <c r="L19" s="29">
+        <v>1</v>
+      </c>
+      <c r="M19" s="29">
+        <v>1</v>
+      </c>
+      <c r="N19" s="29">
+        <v>1</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1</v>
+      </c>
+      <c r="P19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>1</v>
+      </c>
+      <c r="R19" s="29">
+        <v>1</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -1401,31 +1976,65 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" customHeight="1" ht="22" s="9" customFormat="1">
-      <c r="A20" s="15">
-        <v>9</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+    <row r="20" spans="1:28" customHeight="1" ht="22" s="8" customFormat="1">
+      <c r="A20" s="28">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29">
+        <v>1</v>
+      </c>
+      <c r="I20" s="29">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29">
+        <v>1</v>
+      </c>
+      <c r="K20" s="29">
+        <v>1</v>
+      </c>
+      <c r="L20" s="29">
+        <v>1</v>
+      </c>
+      <c r="M20" s="29">
+        <v>1</v>
+      </c>
+      <c r="N20" s="29">
+        <v>1</v>
+      </c>
+      <c r="O20" s="29">
+        <v>1</v>
+      </c>
+      <c r="P20" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>1</v>
+      </c>
+      <c r="R20" s="29">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>65</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1434,30 +2043,64 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" customHeight="1" ht="22">
-      <c r="A21" s="15">
-        <v>10</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="A21" s="28">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1</v>
+      </c>
+      <c r="P21" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -1466,30 +2109,64 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" customHeight="1" ht="22">
-      <c r="A22" s="15">
-        <v>11</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <v>2</v>
+      </c>
+      <c r="O22" s="10">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -1498,30 +2175,70 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" customHeight="1" ht="22">
-      <c r="A23" s="15">
-        <v>12</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="A23" s="28">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
+        <v>1</v>
+      </c>
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -1530,30 +2247,64 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" customHeight="1" ht="22">
-      <c r="A24" s="15">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="A24" s="28">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -1562,30 +2313,64 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" customHeight="1" ht="22">
-      <c r="A25" s="15">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="A25" s="28">
+        <v>27</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -1594,30 +2379,70 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" customHeight="1" ht="22">
-      <c r="A26" s="15">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="A26" s="28">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10">
+        <v>1</v>
+      </c>
+      <c r="P26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1626,30 +2451,64 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" customHeight="1" ht="22">
-      <c r="A27" s="15">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="A27" s="28">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -1658,30 +2517,64 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" customHeight="1" ht="22">
-      <c r="A28" s="15">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
+      <c r="A28" s="28">
+        <v>33</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <v>2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <v>1</v>
+      </c>
+      <c r="O28" s="10">
+        <v>1</v>
+      </c>
+      <c r="P28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>1</v>
+      </c>
+      <c r="R28" s="10">
+        <v>1</v>
+      </c>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -1690,30 +2583,64 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" customHeight="1" ht="22">
-      <c r="A29" s="15">
-        <v>18</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
+      <c r="A29" s="28">
+        <v>35</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10">
+        <v>1</v>
+      </c>
+      <c r="P29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10">
+        <v>1</v>
+      </c>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -1722,30 +2649,64 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" customHeight="1" ht="22">
-      <c r="A30" s="15">
-        <v>19</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
+      <c r="A30" s="28">
+        <v>37</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>1</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1</v>
+      </c>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -1754,30 +2715,64 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" customHeight="1" ht="22">
-      <c r="A31" s="15">
-        <v>20</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
+      <c r="A31" s="28">
+        <v>39</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
+      <c r="M31" s="10">
+        <v>1</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1</v>
+      </c>
+      <c r="O31" s="10">
+        <v>1</v>
+      </c>
+      <c r="P31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1</v>
+      </c>
+      <c r="R31" s="10">
+        <v>1</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -1786,30 +2781,64 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" customHeight="1" ht="22">
-      <c r="A32" s="15">
-        <v>21</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
+      <c r="A32" s="28">
+        <v>41</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1</v>
+      </c>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -1818,30 +2847,70 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" customHeight="1" ht="22">
-      <c r="A33" s="15">
-        <v>22</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+      <c r="A33" s="28">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
+        <v>1</v>
+      </c>
+      <c r="P33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>1</v>
+      </c>
+      <c r="R33" s="10">
+        <v>1</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -1850,30 +2919,64 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" customHeight="1" ht="22">
-      <c r="A34" s="15">
-        <v>23</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
+      <c r="A34" s="28">
+        <v>45</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>1</v>
+      </c>
+      <c r="R34" s="10">
+        <v>1</v>
+      </c>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -1882,30 +2985,64 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" customHeight="1" ht="22">
-      <c r="A35" s="15">
-        <v>24</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
+      <c r="A35" s="28">
+        <v>47</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10">
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
+      <c r="R35" s="10">
+        <v>1</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -1914,30 +3051,64 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" customHeight="1" ht="22">
-      <c r="A36" s="15">
-        <v>25</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
+      <c r="A36" s="28">
+        <v>49</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10">
+        <v>1</v>
+      </c>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -1946,28 +3117,70 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="A37" s="18">
+        <v>51</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1</v>
+      </c>
+      <c r="O37" s="18">
+        <v>1</v>
+      </c>
+      <c r="P37" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>1</v>
+      </c>
+      <c r="R37" s="18">
+        <v>1</v>
+      </c>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U37" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="V37" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -1976,28 +3189,64 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="A38" s="18">
+        <v>53</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1</v>
+      </c>
+      <c r="O38" s="18">
+        <v>1</v>
+      </c>
+      <c r="P38" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>1</v>
+      </c>
+      <c r="R38" s="18">
+        <v>1</v>
+      </c>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -2006,28 +3255,70 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="A39" s="18">
+        <v>55</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1</v>
+      </c>
+      <c r="O39" s="18">
+        <v>1</v>
+      </c>
+      <c r="P39" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>1</v>
+      </c>
+      <c r="R39" s="18">
+        <v>1</v>
+      </c>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="V39" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -2036,28 +3327,70 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="A40" s="18">
+        <v>57</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1</v>
+      </c>
+      <c r="N40" s="18">
+        <v>1</v>
+      </c>
+      <c r="O40" s="18">
+        <v>1</v>
+      </c>
+      <c r="P40" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>1</v>
+      </c>
+      <c r="R40" s="18">
+        <v>1</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -2066,28 +3399,64 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="A41" s="18">
+        <v>59</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1</v>
+      </c>
+      <c r="O41" s="18">
+        <v>1</v>
+      </c>
+      <c r="P41" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>1</v>
+      </c>
+      <c r="R41" s="18">
+        <v>1</v>
+      </c>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -2096,28 +3465,64 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="A42" s="18">
+        <v>61</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1</v>
+      </c>
+      <c r="N42" s="18">
+        <v>1</v>
+      </c>
+      <c r="O42" s="18">
+        <v>1</v>
+      </c>
+      <c r="P42" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>1</v>
+      </c>
+      <c r="R42" s="18">
+        <v>1</v>
+      </c>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="V42" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -2126,28 +3531,64 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="A43" s="18">
+        <v>63</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1</v>
+      </c>
+      <c r="N43" s="18">
+        <v>1</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1</v>
+      </c>
+      <c r="P43" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>1</v>
+      </c>
+      <c r="R43" s="18">
+        <v>1</v>
+      </c>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="V43" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -2156,28 +3597,64 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="A44" s="18">
+        <v>65</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1</v>
+      </c>
+      <c r="N44" s="18">
+        <v>1</v>
+      </c>
+      <c r="O44" s="18">
+        <v>1</v>
+      </c>
+      <c r="P44" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>1</v>
+      </c>
+      <c r="R44" s="18">
+        <v>1</v>
+      </c>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="V44" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -2186,28 +3663,64 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="A45" s="18">
+        <v>67</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1</v>
+      </c>
+      <c r="O45" s="18">
+        <v>1</v>
+      </c>
+      <c r="P45" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>1</v>
+      </c>
+      <c r="R45" s="18">
+        <v>1</v>
+      </c>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="U45" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="V45" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -2216,28 +3729,64 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" customHeight="1" ht="14.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="A46" s="18">
+        <v>69</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1</v>
+      </c>
+      <c r="P46" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>1</v>
+      </c>
+      <c r="R46" s="18">
+        <v>1</v>
+      </c>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="V46" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
